--- a/temp/pages/ValueSet-fish-species-value-set.xlsx
+++ b/temp/pages/ValueSet-fish-species-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T13:23:42+02:00</t>
+    <t>2023-07-11T14:45:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
